--- a/CFA_API/Result/Excel/failedTestResult.xlsx
+++ b/CFA_API/Result/Excel/failedTestResult.xlsx
@@ -6,9 +6,6 @@
     <workbookView activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-12-10 19-46-13" r:id="rId43" sheetId="551"/>
-    <sheet name="2020-12-11 15-33-53" r:id="rId44" sheetId="552"/>
-    <sheet name="2020-12-11 16-59-49" r:id="rId45" sheetId="553"/>
     <sheet name="2020-12-14 16-04-52" r:id="rId46" sheetId="554"/>
     <sheet name="2020-12-14 18-09-04" r:id="rId47" sheetId="555"/>
     <sheet name="2020-12-14 18-48-56" r:id="rId48" sheetId="556"/>
@@ -36,12 +33,15 @@
     <sheet name="2020-12-21 16-12-12" r:id="rId40" sheetId="578"/>
     <sheet name="2020-12-21 20-39-15" r:id="rId41" sheetId="579"/>
     <sheet name="2020-12-22 12-08-27" r:id="rId42" sheetId="580"/>
+    <sheet name="2021-03-15 19-12-36" r:id="rId43" sheetId="581"/>
+    <sheet name="2021-03-15 19-14-03" r:id="rId44" sheetId="582"/>
+    <sheet name="2021-03-15 20-04-54" r:id="rId45" sheetId="583"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="508">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -1572,7 +1572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2321">
+  <fonts count="2333">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -13180,13 +13180,103 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="1162">
+  <fills count="1168">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -19001,7 +19091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2321">
+  <cellXfs count="2333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -21323,89 +21413,20 @@
     <xf numFmtId="0" fontId="2318" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2319" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2320" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2321" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2322" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2323" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2324" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2325" fillId="1165" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2326" fillId="1165" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2327" fillId="1165" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2328" fillId="1165" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2329" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2330" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2331" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2332" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet551.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2201">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2202">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2203">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2204">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet552.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2205">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2206">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2207">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2208">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet553.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2209">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2210">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2211">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2212">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet554.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22135,4 +22156,85 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet581.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2321">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2322">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2323">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2324">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet582.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2325">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2326">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2327">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2328">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet583.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2329">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2330">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2331">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2332">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/CFA_API/Result/Excel/failedTestResult.xlsx
+++ b/CFA_API/Result/Excel/failedTestResult.xlsx
@@ -6,7 +6,6 @@
     <workbookView activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-12-14 16-04-52" r:id="rId46" sheetId="554"/>
     <sheet name="2020-12-14 18-09-04" r:id="rId47" sheetId="555"/>
     <sheet name="2020-12-14 18-48-56" r:id="rId48" sheetId="556"/>
     <sheet name="2020-12-14 19-01-13" r:id="rId49" sheetId="557"/>
@@ -36,12 +35,13 @@
     <sheet name="2021-03-15 19-12-36" r:id="rId43" sheetId="581"/>
     <sheet name="2021-03-15 19-14-03" r:id="rId44" sheetId="582"/>
     <sheet name="2021-03-15 20-04-54" r:id="rId45" sheetId="583"/>
+    <sheet name="2021-03-16 01-43-51" r:id="rId46" sheetId="584"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="508">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -1572,7 +1572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2333">
+  <fonts count="2337">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -13240,13 +13240,43 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="1168">
+  <fills count="1170">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -19091,7 +19121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2333">
+  <cellXfs count="2337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -21425,35 +21455,12 @@
     <xf numFmtId="0" fontId="2330" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2331" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2332" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2333" fillId="1169" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2334" fillId="1169" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2335" fillId="1169" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2336" fillId="1169" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet554.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2213">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2214">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2215">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2216">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet555.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22237,4 +22244,31 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet584.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2333">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2334">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2335">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2336">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>